--- a/outputs-HGR-r202-archive/g__51-20.xlsx
+++ b/outputs-HGR-r202-archive/g__51-20.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,20 +677,20 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2323.fa</t>
+          <t>even_MAG-GUT28960.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6959845245423804</v>
+        <v>0.9985764866757623</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3038574692452103</v>
+        <v>0.0008602777279083781</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001580062124094089</v>
+        <v>0.0005632355963291852</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6959845245423804</v>
+        <v>0.9985764866757623</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -699,27 +699,27 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175(reject)</t>
+          <t>s__51-20 sp001917175</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27781.fa</t>
+          <t>even_MAG-GUT28964.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9986256355853919</v>
+        <v>0.9954483001162405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002080430429627177</v>
+        <v>0.004242718455830045</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001166321371645475</v>
+        <v>0.0003089814279295248</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9986256355853919</v>
+        <v>0.9954483001162405</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -735,20 +735,20 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28960.fa</t>
+          <t>even_MAG-GUT28976.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9985764866757623</v>
+        <v>0.9883913603153104</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008602777279083781</v>
+        <v>0.01151420428644742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0005632355963291852</v>
+        <v>9.443539824220255e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9985764866757623</v>
+        <v>0.9883913603153104</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -764,20 +764,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28964.fa</t>
+          <t>even_MAG-GUT29001.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9954483001162405</v>
+        <v>0.9906566158206925</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004242718455830045</v>
+        <v>0.009221611979842484</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0003089814279295248</v>
+        <v>0.0001217721994648917</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9954483001162405</v>
+        <v>0.9906566158206925</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -793,20 +793,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28976.fa</t>
+          <t>even_MAG-GUT37249.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9883913603153104</v>
+        <v>0.9989269559637022</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01151420428644742</v>
+        <v>0.0003681738288421872</v>
       </c>
       <c r="D13" t="n">
-        <v>9.443539824220255e-05</v>
+        <v>0.0007048702074555894</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9883913603153104</v>
+        <v>0.9989269559637022</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -822,20 +822,20 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29001.fa</t>
+          <t>even_MAG-GUT37818.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9906566158206925</v>
+        <v>0.998568243536715</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009221611979842484</v>
+        <v>0.001047739802979731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0001217721994648917</v>
+        <v>0.0003840166603051949</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9906566158206925</v>
+        <v>0.998568243536715</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -851,20 +851,20 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37249.fa</t>
+          <t>even_MAG-GUT42116.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9989269559637022</v>
+        <v>0.9967991540154064</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003681738288421872</v>
+        <v>1.692803783069378e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0007048702074555894</v>
+        <v>0.003183917946762936</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989269559637022</v>
+        <v>0.9967991540154064</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -880,136 +880,136 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37818.fa</t>
+          <t>even_MAG-GUT50866.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.998568243536715</v>
+        <v>0.0005655976900774603</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001047739802979731</v>
+        <v>0.9988506458427238</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003840166603051949</v>
+        <v>0.0005837564671987701</v>
       </c>
       <c r="E16" t="n">
-        <v>0.998568243536715</v>
+        <v>0.9988506458427238</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42116.fa</t>
+          <t>even_MAG-GUT50872.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9967991540154064</v>
+        <v>0.001395091303443542</v>
       </c>
       <c r="C17" t="n">
-        <v>1.692803783069378e-05</v>
+        <v>0.9968242263707262</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003183917946762936</v>
+        <v>0.001780682325830215</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9967991540154064</v>
+        <v>0.9968242263707262</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50866.fa</t>
+          <t>even_MAG-GUT6623.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0005655976900774603</v>
+        <v>0.9953620419734649</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988506458427238</v>
+        <v>1.246849442190159e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005837564671987701</v>
+        <v>0.004636711177093</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9988506458427238</v>
+        <v>0.9953620419734649</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>s__51-20 sp900539605</t>
+          <t>s__51-20 sp001917175</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>s__51-20 sp900539605</t>
+          <t>s__51-20 sp001917175</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50872.fa</t>
+          <t>even_MAG-GUT70973.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001395091303443542</v>
+        <v>0.9345136688246707</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9968242263707262</v>
+        <v>0.06536924418934188</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001780682325830215</v>
+        <v>0.0001170869859874606</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9968242263707262</v>
+        <v>0.9345136688246707</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>s__51-20 sp900539605</t>
+          <t>s__51-20 sp001917175</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>s__51-20 sp900539605</t>
+          <t>s__51-20 sp001917175</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6623.fa</t>
+          <t>even_MAG-GUT77514.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9953620419734649</v>
+        <v>0.9981647840410642</v>
       </c>
       <c r="C20" t="n">
-        <v>1.246849442190159e-06</v>
+        <v>5.09066750939553e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004636711177093</v>
+        <v>0.001784309283841909</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9953620419734649</v>
+        <v>0.9981647840410642</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1025,20 +1025,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70973.fa</t>
+          <t>even_MAG-GUT77526.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9345136688246707</v>
+        <v>0.9977564091645771</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06536924418934188</v>
+        <v>0.0003001723838781693</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001170869859874606</v>
+        <v>0.001943418451544726</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9345136688246707</v>
+        <v>0.9977564091645771</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1046,93 +1046,6 @@
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77514.fa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9981647840410642</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.09066750939553e-05</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.001784309283841909</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9981647840410642</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77526.fa</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9977564091645771</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0003001723838781693</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.001943418451544726</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9977564091645771</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78207.fa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9977931712018591</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.512006263311557e-05</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.002151708735507834</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9977931712018591</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>s__51-20 sp001917175</t>
         </is>
